--- a/output_tb_triage_comparison_table.xlsx
+++ b/output_tb_triage_comparison_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,78 +466,104 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VOC Model (TPP Threshold)</t>
+          <t>Combined Youden's J Optimized with CXR (Parallel)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="C3" t="n">
-        <v>46.7</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VOC Model (Optimized)</t>
+          <t>VOC Model (TPP Optimized)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>93.3</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CXR + CAD</t>
+          <t>VOC Model (Sensitivity Optimized)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>93.8</v>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CXR</t>
+          <t>VOC Model (Youden's J)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CRP</t>
+          <t>CXR + CAD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>CXR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>76</v>
+      </c>
+      <c r="C8" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Urine LAM</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B10" t="n">
         <v>42</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C10" t="n">
         <v>99</v>
       </c>
     </row>

--- a/output_tb_triage_comparison_table.xlsx
+++ b/output_tb_triage_comparison_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,104 +466,91 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Combined Youden's J Optimized with CXR (Parallel)</t>
+          <t>VOC Model (TPP Optimized)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>76.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VOC Model (TPP Optimized)</t>
+          <t>VOC Model (Sensitivity Optimized)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C4" t="n">
-        <v>66.7</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VOC Model (Sensitivity Optimized)</t>
+          <t>Combined Sensitivity Optimized with CXR (Parallel)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.8</v>
+        <v>96.3</v>
       </c>
       <c r="C5" t="n">
-        <v>46.7</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VOC Model (Youden's J)</t>
+          <t>CXR + CAD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>93.3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CXR + CAD</t>
+          <t>CXR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CXR</t>
+          <t>CRP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CRP</t>
+          <t>Urine LAM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Urine LAM</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>42</v>
-      </c>
-      <c r="C10" t="n">
         <v>99</v>
       </c>
     </row>

--- a/output_tb_triage_comparison_table.xlsx
+++ b/output_tb_triage_comparison_table.xlsx
@@ -483,16 +483,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>26.7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Combined Sensitivity Optimized with CXR (Parallel)</t>
+          <t>TPP Optimized with CXR (Parallel)</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/output_tb_triage_comparison_table.xlsx
+++ b/output_tb_triage_comparison_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="5">
@@ -496,61 +496,74 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.3</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
-        <v>65.59999999999999</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CXR + CAD</t>
+          <t>TPP Optimized with Urine LAM (Parallel)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>85.8</v>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CXR</t>
+          <t>CXR + CAD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CRP</t>
+          <t>CXR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Urine LAM</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>42</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>99</v>
       </c>
     </row>

--- a/output_tb_triage_comparison_table.xlsx
+++ b/output_tb_triage_comparison_table.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>66.7</v>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.3</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="5">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94</v>
+        <v>94.7</v>
       </c>
       <c r="C5" t="n">
         <v>54.7</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.8</v>
+        <v>87.3</v>
       </c>
       <c r="C6" t="n">
         <v>66</v>

--- a/output_tb_triage_comparison_table.xlsx
+++ b/output_tb_triage_comparison_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,100 +470,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VOC Model (Sensitivity Optimized)</t>
+          <t>TPP Optimized with CXR (Parallel)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>33.3</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TPP Optimized with CXR (Parallel)</t>
+          <t>TPP Optimized with Urine LAM (Parallel)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.7</v>
+        <v>94.2</v>
       </c>
       <c r="C5" t="n">
-        <v>54.7</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TPP Optimized with Urine LAM (Parallel)</t>
+          <t>CXR + CAD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.3</v>
+        <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CXR + CAD</t>
+          <t>CXR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CXR</t>
+          <t>CRP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CRP</t>
+          <t>Urine LAM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Urine LAM</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>42</v>
-      </c>
-      <c r="C10" t="n">
         <v>99</v>
       </c>
     </row>
